--- a/data/trans_camb/P25A_5_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_5_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,50 +541,68 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M3/M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M2</t>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,54</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,02</t>
+          <t>0,79; 6,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,22</t>
+          <t>0,54; 7,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,78</t>
+          <t>0,77; 7,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,15</t>
+          <t>0,09; 6,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,78</t>
+          <t>0,0; 4,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 4,22</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 4,59</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 4,66</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>165,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>158,84%</t>
+          <t>659,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>285,32%</t>
+          <t>457,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>258,2%</t>
+          <t>399,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>891,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>929,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>873,36%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 1087,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 1062,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 1474,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1266,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,81</t>
+          <t>-4,61; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,23</t>
+          <t>-1,06; 12,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,71</t>
+          <t>-6,3; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,73</t>
+          <t>-4,85; 4,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,83</t>
+          <t>-3,7; 6,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,52</t>
+          <t>-0,65; 25,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 2,11</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 5,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 11,51</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>-28,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>169,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>243,12%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-24,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>83,01%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>107,25%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,68; 1006,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,69; 445,62</t>
+          <t>-78,62; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,14; 476,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,72; 256,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 278,39</t>
+          <t>-100,0; 1313,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 162,76</t>
+          <t>-66,94; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-91,62; 274,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-57,99; 623,16</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-65,15; 1252,51</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,95</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,57</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 0,0</t>
+          <t>-21,83; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 0,0</t>
+          <t>-21,83; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 2,44</t>
+          <t>-11,08; 12,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,0</t>
+          <t>-19,07; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,28</t>
+          <t>-15,1; 5,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -0,72</t>
+          <t>-11,57; 11,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; -1,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 1,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,1; 8,51</t>
         </is>
       </c>
     </row>
@@ -999,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-61,24%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1009,12 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-76,41%</t>
+          <t>-54,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-72,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,85</t>
+          <t>-1,9; 1,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,98</t>
+          <t>-0,05; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,04</t>
+          <t>-1,24; 3,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,27</t>
+          <t>-1,8; 3,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,52</t>
+          <t>-1,43; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,68</t>
+          <t>0,16; 12,08</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 1,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 3,46</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 5,87</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,68%</t>
+          <t>170,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>50,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>178,7%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>92,25%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>130,12%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,86; 611,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 556,17</t>
+          <t>-43,31; 1442,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 299,95</t>
+          <t>-82,57; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 171,45</t>
+          <t>-68,62; 363,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 222,6</t>
+          <t>-62,01; 373,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 145,61</t>
+          <t>-31,56; 1013,38</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-65,53; 169,34</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 325,02</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 489,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
